--- a/ts_login_ukrnet.xlsx
+++ b/ts_login_ukrnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\asferro_aqa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Summary</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Пользователь имеет возмоность авторизироваться в системе</t>
-  </si>
-  <si>
     <t>Asferro</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>Введите действительное имя пользователя в поле "Имя ящика"</t>
   </si>
   <si>
-    <t>Введите действительній пароль пользователя в поле "Пароль"</t>
-  </si>
-  <si>
     <t>Зарегистрированый в системе пользователь, лкализация Русская</t>
   </si>
   <si>
-    <t>Ввод недействительных данных в поле  "Имя ящика" не дает зарегестрироваться</t>
-  </si>
-  <si>
     <t>Введите недействительное имя пользователя в поле "Имя ящика"</t>
   </si>
   <si>
@@ -125,28 +116,43 @@
     <t>Введите любые значения в поле "Пароль"</t>
   </si>
   <si>
-    <t>Убедится в появлении иконки клаза в правом краю поля после ввода первого сивола</t>
-  </si>
-  <si>
     <t>Любые</t>
   </si>
   <si>
     <t>Визуально наблюдаемая иконка глаза</t>
   </si>
   <si>
-    <t>В поле "Пароль" видні вводиміе символы</t>
-  </si>
-  <si>
     <t>Зажать ЛКМ на иконке глаза</t>
   </si>
   <si>
     <t>отпустить ЛКМ</t>
   </si>
   <si>
-    <t>В поле "Пароль" отоброжаются звездочки</t>
-  </si>
-  <si>
     <t>Пользователь имеет возможность просмотра введенного пароля в поле "Пароль" на странице "https://accounts.ukr.net/login"</t>
+  </si>
+  <si>
+    <t>Убедится в появлении иконки глаза в правом краю поля после ввода первого символа</t>
+  </si>
+  <si>
+    <t>В поле "Пароль" видно вводимые символы</t>
+  </si>
+  <si>
+    <t>В поле "Пароль" отображаются звездочки</t>
+  </si>
+  <si>
+    <t>Зарегистрированный в системе пользователь, локализация Русская</t>
+  </si>
+  <si>
+    <t>Введите действительной пароль пользователя в поле "Пароль"</t>
+  </si>
+  <si>
+    <t>Ввод недействительных данных в поле  "Имя ящика" не дает зарегистрироваться</t>
+  </si>
+  <si>
+    <t>Пользователь имеет возможность авторизоваться в системе</t>
+  </si>
+  <si>
+    <t>Введите действительный пароль пользователя в поле "Пароль"</t>
   </si>
 </sst>
 </file>
@@ -602,27 +608,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,7 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,6 +638,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -657,83 +692,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -969,57 +975,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -1029,102 +1035,103 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
+    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:D1"/>
@@ -1134,7 +1141,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1149,7 +1155,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B6" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,57 +1168,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -1222,99 +1228,99 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1341,8 +1347,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="B9:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1355,57 +1361,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -1415,112 +1421,112 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="26">
+        <v>4</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49">
-        <v>4</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19">
-        <v>5</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
